--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/150.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/150.xlsx
@@ -479,13 +479,13 @@
         <v>-3.326634620933384</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.28795056252416</v>
+        <v>-11.29168186883405</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6361522812403776</v>
+        <v>0.6717371603641891</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.225533547057218</v>
+        <v>-5.168136891399091</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.198681082848102</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47738309234109</v>
+        <v>-11.47630952350807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7111580842206262</v>
+        <v>0.751220530916308</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.109142974794273</v>
+        <v>-5.054469518127225</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.069944514652469</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.02108024475229</v>
+        <v>-12.01905093781182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7233470181662732</v>
+        <v>0.7595079586151205</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.801329842682452</v>
+        <v>-4.749274846583749</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.922099992472214</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.70919858981057</v>
+        <v>-12.70850469775996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.736884459304618</v>
+        <v>0.7735821841699762</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.887752133740685</v>
+        <v>-4.834047507483925</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.719152482138907</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.3112350436845</v>
+        <v>-13.30859039851047</v>
       </c>
       <c r="F6" t="n">
-        <v>0.768279801519077</v>
+        <v>0.8034850038604785</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.179681119151614</v>
+        <v>-4.11927323383989</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.430951716269379</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.590205832636</v>
+        <v>-13.57914283673474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.883465881920583</v>
+        <v>0.9241567591526676</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.191660576251794</v>
+        <v>-4.129681614599062</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.036468113111583</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.16740618801918</v>
+        <v>-14.15403894681778</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9631718216210113</v>
+        <v>0.9999742849091033</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.77726300670548</v>
+        <v>-3.718674951488756</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.526578376531191</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.9597392636976</v>
+        <v>-14.94811329877415</v>
       </c>
       <c r="F9" t="n">
-        <v>1.185583862296254</v>
+        <v>1.224075232650928</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.408282635717114</v>
+        <v>-3.345230105231361</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.9098759432046467</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.55598891971549</v>
+        <v>-15.5404614485452</v>
       </c>
       <c r="F10" t="n">
-        <v>1.232676875617942</v>
+        <v>1.273132091398876</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.70580203444146</v>
+        <v>-2.641047504586283</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.207435486261403</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.16140318772258</v>
+        <v>-16.14456648626813</v>
       </c>
       <c r="F11" t="n">
-        <v>1.177676111379851</v>
+        <v>1.21673045075672</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.257272831386767</v>
+        <v>-2.189572533392202</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.5432281663943652</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.63262135160199</v>
+        <v>-16.61159511323818</v>
       </c>
       <c r="F12" t="n">
-        <v>1.205850747095246</v>
+        <v>1.243478025462367</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.834705664867216</v>
+        <v>-1.768615720122183</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>1.299926263575658</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.42873810280167</v>
+        <v>-17.40636335724516</v>
       </c>
       <c r="F13" t="n">
-        <v>1.42577525023056</v>
+        <v>1.466413758251278</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.042712989062681</v>
+        <v>-0.9749865064624323</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>2.012945476212111</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.24224143217516</v>
+        <v>-18.22036419412663</v>
       </c>
       <c r="F14" t="n">
-        <v>1.627501452415876</v>
+        <v>1.6697110367776</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8429244476979415</v>
+        <v>-0.7862216840904259</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.639826932978803</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.08672115007218</v>
+        <v>-19.06288006659739</v>
       </c>
       <c r="F15" t="n">
-        <v>1.677121280186017</v>
+        <v>1.718335849531771</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4098179773908014</v>
+        <v>-0.3562573664653001</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>3.14166718399574</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.08303230402469</v>
+        <v>-20.06345931127631</v>
       </c>
       <c r="F16" t="n">
-        <v>2.000370237348234</v>
+        <v>2.043627205937297</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1598673961612249</v>
+        <v>0.2143837451941723</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.494089771151776</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.79525357861458</v>
+        <v>-20.77340252517174</v>
       </c>
       <c r="F17" t="n">
-        <v>2.060437722786073</v>
+        <v>2.102149799639812</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2589237594617244</v>
+        <v>0.3076533106386288</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.681616507898838</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.70567922592537</v>
+        <v>-21.68308191122055</v>
       </c>
       <c r="F18" t="n">
-        <v>2.180651247478802</v>
+        <v>2.221734893796138</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8206751974916647</v>
+        <v>0.8692476410344685</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.700829533803943</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.71390437546385</v>
+        <v>-22.69430519810979</v>
       </c>
       <c r="F19" t="n">
-        <v>2.279681426173618</v>
+        <v>2.320869810913688</v>
       </c>
       <c r="G19" t="n">
-        <v>1.037549194064857</v>
+        <v>1.081068008710754</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.55600168825792</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.07069581250657</v>
+        <v>-23.04702492896874</v>
       </c>
       <c r="F20" t="n">
-        <v>2.580149776391231</v>
+        <v>2.621154868891517</v>
       </c>
       <c r="G20" t="n">
-        <v>1.642243385415659</v>
+        <v>1.691915582397168</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.256887750322309</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.02653865837531</v>
+        <v>-24.00745008083208</v>
       </c>
       <c r="F21" t="n">
-        <v>2.703086500075039</v>
+        <v>2.741420762795613</v>
       </c>
       <c r="G21" t="n">
-        <v>1.747348392629036</v>
+        <v>1.792412099010257</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.819530760759656</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.36608753257548</v>
+        <v>-24.34349021787066</v>
       </c>
       <c r="F22" t="n">
-        <v>2.78706053050187</v>
+        <v>2.825447162433811</v>
       </c>
       <c r="G22" t="n">
-        <v>2.016866538928809</v>
+        <v>2.064522521272691</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.258468495225599</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.90249227230384</v>
+        <v>-24.8788868502802</v>
       </c>
       <c r="F23" t="n">
-        <v>2.722148893012592</v>
+        <v>2.7569482339659</v>
       </c>
       <c r="G23" t="n">
-        <v>2.564543751403894</v>
+        <v>2.612854348889863</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.595394732733854</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.43973491941406</v>
+        <v>-25.42031903429979</v>
       </c>
       <c r="F24" t="n">
-        <v>2.605705951538281</v>
+        <v>2.636996555330006</v>
       </c>
       <c r="G24" t="n">
-        <v>2.35577389028973</v>
+        <v>2.400575750614117</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8471601387344051</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.58189114366953</v>
+        <v>-25.56319533521154</v>
       </c>
       <c r="F25" t="n">
-        <v>2.727778583234534</v>
+        <v>2.756162695795396</v>
       </c>
       <c r="G25" t="n">
-        <v>2.264546724088583</v>
+        <v>2.305237601320667</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.04093406807402581</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.66231716002625</v>
+        <v>-25.64283581339776</v>
       </c>
       <c r="F26" t="n">
-        <v>2.894443598409707</v>
+        <v>2.925079587059346</v>
       </c>
       <c r="G26" t="n">
-        <v>2.267767430587647</v>
+        <v>2.305944585674121</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.8024510418275319</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.4181588043309</v>
+        <v>-25.39612445864828</v>
       </c>
       <c r="F27" t="n">
-        <v>2.592247064216986</v>
+        <v>2.621259607314251</v>
       </c>
       <c r="G27" t="n">
-        <v>1.978532276208235</v>
+        <v>2.010268018296579</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.652025508152431</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.51529059911367</v>
+        <v>-25.49477496056068</v>
       </c>
       <c r="F28" t="n">
-        <v>2.859644257456399</v>
+        <v>2.888944831216182</v>
       </c>
       <c r="G28" t="n">
-        <v>1.934306477208884</v>
+        <v>1.966094588508595</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.483340354743235</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.73185038041866</v>
+        <v>-25.71535407883808</v>
       </c>
       <c r="F29" t="n">
-        <v>2.687768505750219</v>
+        <v>2.711701235344895</v>
       </c>
       <c r="G29" t="n">
-        <v>1.835485775359536</v>
+        <v>1.870442223946944</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.263861326953135</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.3820109561849</v>
+        <v>-25.36200591744274</v>
       </c>
       <c r="F30" t="n">
-        <v>2.660143746754177</v>
+        <v>2.687428105876335</v>
       </c>
       <c r="G30" t="n">
-        <v>1.970257940812264</v>
+        <v>2.00990143381701</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.968042876003541</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.61417357912335</v>
+        <v>-24.58848648094788</v>
       </c>
       <c r="F31" t="n">
-        <v>2.571639779544109</v>
+        <v>2.598321892735547</v>
       </c>
       <c r="G31" t="n">
-        <v>1.443004720770272</v>
+        <v>1.478982368979335</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.568442534545502</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.74114273208241</v>
+        <v>-24.71959280160492</v>
       </c>
       <c r="F32" t="n">
-        <v>2.551608556196268</v>
+        <v>2.578814361501375</v>
       </c>
       <c r="G32" t="n">
-        <v>1.552692033978253</v>
+        <v>1.594456480043359</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.047771217655131</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.17051471272577</v>
+        <v>-24.1458619064748</v>
       </c>
       <c r="F33" t="n">
-        <v>2.606282012863316</v>
+        <v>2.636053909525401</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7897511781795078</v>
+        <v>0.8239482732020963</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.391879562816089</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.52492016729742</v>
+        <v>-23.49787146962641</v>
       </c>
       <c r="F34" t="n">
-        <v>2.583998913426699</v>
+        <v>2.615472809458208</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7211867881973884</v>
+        <v>0.7562217906018474</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.597798665652175</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.88858187997817</v>
+        <v>-22.85541907688008</v>
       </c>
       <c r="F35" t="n">
-        <v>2.459412559584834</v>
+        <v>2.491750547603897</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7762268293440048</v>
+        <v>0.8134875232315572</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.66743739087782</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.08472757779903</v>
+        <v>-22.05215392832881</v>
       </c>
       <c r="F36" t="n">
-        <v>2.312883506180235</v>
+        <v>2.344357402211745</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7944644072025292</v>
+        <v>0.8361241148449016</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.613527496571767</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.13566654480231</v>
+        <v>-21.09775123577267</v>
       </c>
       <c r="F37" t="n">
-        <v>2.354202813948723</v>
+        <v>2.385755263797282</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7316344458650857</v>
+        <v>0.7751139836024581</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.451689009431757</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.01077906799508</v>
+        <v>-20.97840180306749</v>
       </c>
       <c r="F38" t="n">
-        <v>2.184369461485852</v>
+        <v>2.214717419472973</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4365339398125802</v>
+        <v>0.4759941405775426</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.206886040646724</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.15494832353429</v>
+        <v>-20.11784473728084</v>
       </c>
       <c r="F39" t="n">
-        <v>2.425922448915698</v>
+        <v>2.457422529552891</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2688084481072275</v>
+        <v>0.3107169095035927</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.902650643905632</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.63730485377812</v>
+        <v>-19.59972994462237</v>
       </c>
       <c r="F40" t="n">
-        <v>2.263132755381676</v>
+        <v>2.29630865078261</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.05375970930721932</v>
+        <v>-0.01263678608135774</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.570038194311201</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.68301999194755</v>
+        <v>-18.63702673206457</v>
       </c>
       <c r="F41" t="n">
-        <v>2.482297904952171</v>
+        <v>2.513274293475694</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1195223464812094</v>
+        <v>-0.07385639416926883</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.232082743407965</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.41769138255713</v>
+        <v>-18.37878105851152</v>
       </c>
       <c r="F42" t="n">
-        <v>2.490807901799292</v>
+        <v>2.51824936855555</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3656838245113429</v>
+        <v>-0.3239586553547619</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.917451376274525</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.49583615486551</v>
+        <v>-17.45370512432084</v>
       </c>
       <c r="F43" t="n">
-        <v>2.843462171144026</v>
+        <v>2.871820099099204</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3701482997803715</v>
+        <v>-0.3314343602773875</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.642333689466741</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.0468618135142</v>
+        <v>-17.00178501483014</v>
       </c>
       <c r="F44" t="n">
-        <v>2.776953272708057</v>
+        <v>2.807432153723596</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.6979664706343505</v>
+        <v>-0.6606403152325895</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.427430112649054</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.3174765298988</v>
+        <v>-16.27154873153003</v>
       </c>
       <c r="F45" t="n">
-        <v>2.725762368596909</v>
+        <v>2.751894605068994</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7451380377730895</v>
+        <v>-0.7040020222443862</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.278122726888269</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.84354825933116</v>
+        <v>-15.79631123067821</v>
       </c>
       <c r="F46" t="n">
-        <v>2.89067301519129</v>
+        <v>2.918062112736181</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9097868383106366</v>
+        <v>-0.8658228853681205</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.20379294985256</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.1094366543899</v>
+        <v>-15.05858615015263</v>
       </c>
       <c r="F47" t="n">
-        <v>2.866583177962514</v>
+        <v>2.893212921942585</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.242789561089939</v>
+        <v>-1.197110516475157</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.199115490146362</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.46038574101133</v>
+        <v>-14.40737500680518</v>
       </c>
       <c r="F48" t="n">
-        <v>2.732203781595038</v>
+        <v>2.756974418571583</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.282485423306053</v>
+        <v>-1.235680440646882</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.262419418577325</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.85184241262506</v>
+        <v>-13.79705112523243</v>
       </c>
       <c r="F49" t="n">
-        <v>3.127696065837899</v>
+        <v>3.158489162121638</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.471551368643419</v>
+        <v>-1.419339264910615</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.381552018420793</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.25508215679634</v>
+        <v>-13.20120733060264</v>
       </c>
       <c r="F50" t="n">
-        <v>3.182840845407249</v>
+        <v>3.212298526801133</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.429800014881154</v>
+        <v>-1.373228174302056</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.54616367730287</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.40058682722541</v>
+        <v>-12.34710477011695</v>
       </c>
       <c r="F51" t="n">
-        <v>3.168779712155235</v>
+        <v>3.199258593170773</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.441124856839247</v>
+        <v>-1.378753126101264</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.740090635664003</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.37734798968134</v>
+        <v>-12.33577992815886</v>
       </c>
       <c r="F52" t="n">
-        <v>3.131754679718834</v>
+        <v>3.161526576380919</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.53694742133784</v>
+        <v>-1.473790152429354</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.94834450144612</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.57524805608299</v>
+        <v>-11.52951664225684</v>
       </c>
       <c r="F53" t="n">
-        <v>3.406902516240549</v>
+        <v>3.438873919780044</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.683620490073698</v>
+        <v>-1.620515590376578</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.156277318837734</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.33976989717171</v>
+        <v>-11.29308274523811</v>
       </c>
       <c r="F54" t="n">
-        <v>3.063124828222506</v>
+        <v>3.094467801225598</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.750168665418191</v>
+        <v>-1.684157274490208</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.34981765763624</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.76094609623616</v>
+        <v>-10.71225582196778</v>
       </c>
       <c r="F55" t="n">
-        <v>2.945529764098122</v>
+        <v>2.977920121328553</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.138368536978211</v>
+        <v>-2.071296669520048</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.519749125688024</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.20495527145658</v>
+        <v>-10.15588532040579</v>
       </c>
       <c r="F56" t="n">
-        <v>3.167156266602861</v>
+        <v>3.20151046925955</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.413660388831185</v>
+        <v>-2.349233166547051</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.656831443417897</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.607265462126097</v>
+        <v>-9.564126324262611</v>
       </c>
       <c r="F57" t="n">
-        <v>3.189884504336097</v>
+        <v>3.226830982955449</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.898743301419977</v>
+        <v>-2.839998138569153</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.758971136812844</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.47598894153211</v>
+        <v>-9.433897187895962</v>
       </c>
       <c r="F58" t="n">
-        <v>3.152073933729193</v>
+        <v>3.18823487417804</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.722363797536244</v>
+        <v>-2.65535739159229</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.821903874624309</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.87676733276915</v>
+        <v>-8.835068348218252</v>
       </c>
       <c r="F59" t="n">
-        <v>3.256471956589116</v>
+        <v>3.294832403915374</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.090506261142739</v>
+        <v>-3.027872684347922</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.848721561363723</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.766399219813399</v>
+        <v>-8.722251974631099</v>
       </c>
       <c r="F60" t="n">
-        <v>3.05314849345711</v>
+        <v>3.090723402612864</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.803666998183363</v>
+        <v>-2.736555853816675</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.837773241244391</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.329142489505433</v>
+        <v>-8.287796997131261</v>
       </c>
       <c r="F61" t="n">
-        <v>3.118531453848691</v>
+        <v>3.155373194045308</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.264502965909279</v>
+        <v>-3.199591328420001</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.794642477065891</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.957294904194729</v>
+        <v>-7.91634218090581</v>
       </c>
       <c r="F62" t="n">
-        <v>2.929216754757332</v>
+        <v>2.962235542524165</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.383682198677511</v>
+        <v>-3.324701374375535</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.718838159508793</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.769315619993226</v>
+        <v>-7.730222003707832</v>
       </c>
       <c r="F63" t="n">
-        <v>3.215728710145665</v>
+        <v>3.255869710658397</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.362407206559706</v>
+        <v>-3.30258847487586</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.615493717304152</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.504000102905647</v>
+        <v>-7.469397146494965</v>
       </c>
       <c r="F64" t="n">
-        <v>3.073677224312937</v>
+        <v>3.113477824951784</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.692699822650771</v>
+        <v>-3.634923490210234</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.482665334544494</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.219831669725982</v>
+        <v>-7.1850716056812</v>
       </c>
       <c r="F65" t="n">
-        <v>3.173388202755523</v>
+        <v>3.215519233300197</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.727774101963755</v>
+        <v>-3.670023954128902</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.323552420193253</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.003625380597718</v>
+        <v>-6.971235023367289</v>
       </c>
       <c r="F66" t="n">
-        <v>3.020391551747112</v>
+        <v>3.06254876689747</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.781871497305767</v>
+        <v>-3.727486071301238</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.135810249111423</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.102891220743685</v>
+        <v>-7.074808231148183</v>
       </c>
       <c r="F67" t="n">
-        <v>3.020941428466464</v>
+        <v>3.062313105446319</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.6697097388607</v>
+        <v>-3.617510727430739</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.923488196919732</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.792459628063519</v>
+        <v>-6.763015038972477</v>
       </c>
       <c r="F68" t="n">
-        <v>2.986587225809775</v>
+        <v>3.028849179382867</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.643629871599982</v>
+        <v>-3.593866028498581</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.68520168057766</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.967595363177288</v>
+        <v>-6.945142063803728</v>
       </c>
       <c r="F69" t="n">
-        <v>2.745505561282231</v>
+        <v>2.786039330880215</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.68532885615088</v>
+        <v>-3.63511987475286</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.426435363362313</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.717781132654313</v>
+        <v>-6.694084064510789</v>
       </c>
       <c r="F70" t="n">
-        <v>2.810731414039711</v>
+        <v>2.852574413921867</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.491130728099557</v>
+        <v>-3.444286468531861</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.147584910868308</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.638363223616403</v>
+        <v>-6.617166785315648</v>
       </c>
       <c r="F71" t="n">
-        <v>2.715969326071297</v>
+        <v>2.755481896047626</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.482921854217794</v>
+        <v>-3.438826978246861</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.856913743960611</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.808576252861683</v>
+        <v>-6.791268228504921</v>
       </c>
       <c r="F72" t="n">
-        <v>2.864305117268054</v>
+        <v>2.908557100873088</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.357707069839527</v>
+        <v>-3.316937638790391</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.55725952867706</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.95479109099808</v>
+        <v>-6.937928204937937</v>
       </c>
       <c r="F73" t="n">
-        <v>2.617960346998136</v>
+        <v>2.656713563409645</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.276560976826508</v>
+        <v>-3.240216744137877</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.259673800976818</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.22640400575253</v>
+        <v>-7.210418303982782</v>
       </c>
       <c r="F74" t="n">
-        <v>2.752051712703095</v>
+        <v>2.791930867158992</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.244105158081869</v>
+        <v>-3.211178016434928</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.968794000404055</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.3962373582154</v>
+        <v>-7.380906271587738</v>
       </c>
       <c r="F75" t="n">
-        <v>2.304713909206998</v>
+        <v>2.34181749546045</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.978148118155046</v>
+        <v>-2.946464745278069</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.696436145572151</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.834829503413223</v>
+        <v>-7.817154894576893</v>
       </c>
       <c r="F76" t="n">
-        <v>2.553232001748643</v>
+        <v>2.593765771346626</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.904595560790229</v>
+        <v>-2.873972664443432</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.447171014352311</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.153483062277994</v>
+        <v>-8.13555969968767</v>
       </c>
       <c r="F77" t="n">
-        <v>2.399057043484476</v>
+        <v>2.437548413839151</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.776435008272573</v>
+        <v>-2.746728573124696</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.23202460555532</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.504592439887404</v>
+        <v>-8.48234861735931</v>
       </c>
       <c r="F78" t="n">
-        <v>2.293742559425632</v>
+        <v>2.331605499243903</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.612414638271428</v>
+        <v>-2.586387140222077</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.054140367339201</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.963530023701269</v>
+        <v>-8.940304278460047</v>
       </c>
       <c r="F79" t="n">
-        <v>2.405341348848505</v>
+        <v>2.447681856238647</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.326675128750757</v>
+        <v>-2.30090947675824</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9219626227677784</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.361103984095966</v>
+        <v>-9.332929348380571</v>
       </c>
       <c r="F80" t="n">
-        <v>2.115451579327006</v>
+        <v>2.154676118640817</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.774546533309485</v>
+        <v>-1.746830128193551</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8360046156785383</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.999406116841477</v>
+        <v>-9.966413513680328</v>
       </c>
       <c r="F81" t="n">
-        <v>2.258393341752971</v>
+        <v>2.298979480562322</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.877635325885236</v>
+        <v>-1.854619057489482</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7999081720077195</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.65512101236649</v>
+        <v>-10.61915645646026</v>
       </c>
       <c r="F82" t="n">
-        <v>2.237890795502828</v>
+        <v>2.280257487498654</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.651059932906325</v>
+        <v>-1.626053634478628</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8104038426615594</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.25535072844826</v>
+        <v>-11.21616546604297</v>
       </c>
       <c r="F83" t="n">
-        <v>1.917522144965791</v>
+        <v>1.95619680756025</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.245879344560586</v>
+        <v>-1.221828784240336</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.8653917596561258</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.13647580199927</v>
+        <v>-12.09133354180099</v>
       </c>
       <c r="F84" t="n">
-        <v>1.97735396895248</v>
+        <v>2.018437615269816</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.0982243531116</v>
+        <v>-1.076320930457392</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.9586684770864787</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.76514199985327</v>
+        <v>-12.71763003284064</v>
       </c>
       <c r="F85" t="n">
-        <v>1.898145536760037</v>
+        <v>1.939412475317157</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.7972977722945261</v>
+        <v>-0.7766250261074408</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.083900736735236</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.55900687496417</v>
+        <v>-13.50535461791878</v>
       </c>
       <c r="F86" t="n">
-        <v>1.864576872273851</v>
+        <v>1.906629349001475</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.5920497406447867</v>
+        <v>-0.5738252550891039</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.233200283936951</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.3821854161377</v>
+        <v>-14.32461856054263</v>
       </c>
       <c r="F87" t="n">
-        <v>1.880706589374858</v>
+        <v>1.92532515745946</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2004851472544434</v>
+        <v>-0.1831640305948398</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.397724881163339</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.57464545126495</v>
+        <v>-15.51734044172671</v>
       </c>
       <c r="F88" t="n">
-        <v>1.90181138155572</v>
+        <v>1.945304011595934</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07752990358960969</v>
+        <v>0.09402620517018455</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.569143640526262</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.50798262854876</v>
+        <v>-16.43944442317232</v>
       </c>
       <c r="F89" t="n">
-        <v>1.641353108822422</v>
+        <v>1.683903093058031</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2615422200300696</v>
+        <v>0.2742679383922274</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.736944227460506</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.90638458737636</v>
+        <v>-17.8364585978987</v>
       </c>
       <c r="F90" t="n">
-        <v>1.602076200297244</v>
+        <v>1.646537660747745</v>
       </c>
       <c r="G90" t="n">
-        <v>0.723595771920266</v>
+        <v>0.7365833363392582</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.893808961369736</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.05114936325121</v>
+        <v>-18.97050077774617</v>
       </c>
       <c r="F91" t="n">
-        <v>1.292246853547796</v>
+        <v>1.331903438855384</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6939417059837565</v>
+        <v>0.7078981008130364</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.032308511024008</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.3294687204145</v>
+        <v>-20.24304642935626</v>
       </c>
       <c r="F92" t="n">
-        <v>1.080282470540251</v>
+        <v>1.118904763923343</v>
       </c>
       <c r="G92" t="n">
-        <v>1.195206704884922</v>
+        <v>1.21407271327985</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.15218063876364</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.91799710110964</v>
+        <v>-21.82481918178508</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9414516912065878</v>
+        <v>0.9808987996687084</v>
       </c>
       <c r="G93" t="n">
-        <v>1.191868167660282</v>
+        <v>1.210734176055209</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.25251177790481</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.54505612906799</v>
+        <v>-23.44315873605084</v>
       </c>
       <c r="F94" t="n">
-        <v>1.045928267883562</v>
+        <v>1.084760038112121</v>
       </c>
       <c r="G94" t="n">
-        <v>1.355862353055743</v>
+        <v>1.380921020694807</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.338145916016388</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.20813208214393</v>
+        <v>-25.09379700142714</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3209943672343477</v>
+        <v>0.3560031850331232</v>
       </c>
       <c r="G95" t="n">
-        <v>1.333683992041859</v>
+        <v>1.362251396842505</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.408421919855493</v>
       </c>
       <c r="E96" t="n">
-        <v>-26.97268647454609</v>
+        <v>-26.85528779496433</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4915608886563549</v>
+        <v>0.5317149814719287</v>
       </c>
       <c r="G96" t="n">
-        <v>1.042039853939569</v>
+        <v>1.071458258424928</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.467568018660639</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.88103362905892</v>
+        <v>-28.7564603675199</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1395273852233668</v>
+        <v>-0.1074905201696631</v>
       </c>
       <c r="G97" t="n">
-        <v>1.217437435110173</v>
+        <v>1.253297252593661</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.511328312826697</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.10557298950228</v>
+        <v>-30.97671854493401</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4095299467282835</v>
+        <v>-0.3711433147963427</v>
       </c>
       <c r="G98" t="n">
-        <v>1.092995096599567</v>
+        <v>1.132769512632731</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.542704915856574</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.27765149245884</v>
+        <v>-33.14215925034982</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3842879868494357</v>
+        <v>-0.3452467397754085</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7143918830225325</v>
+        <v>0.7571251594979265</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.551418972032001</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.24486164054808</v>
+        <v>-35.09610689566038</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4544103608697205</v>
+        <v>-0.4142562680541466</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5230609692935478</v>
+        <v>0.569892136558402</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.541232321347197</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.05531764671333</v>
+        <v>-36.89402047570326</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8139904584177269</v>
+        <v>-0.7728937197975488</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04727901940056491</v>
+        <v>-0.001743990117041647</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.490904885903432</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.35759910143086</v>
+        <v>-39.19342162379561</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7189403397867956</v>
+        <v>-0.676626017002337</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.5837754052488158</v>
+        <v>-0.5405969904768032</v>
       </c>
     </row>
   </sheetData>
